--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value287.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value287.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.187410971704759</v>
+        <v>1.030704498291016</v>
       </c>
       <c r="B1">
-        <v>2.026561759468682</v>
+        <v>1.294652223587036</v>
       </c>
       <c r="C1">
-        <v>2.095834461411321</v>
+        <v>1.863481879234314</v>
       </c>
       <c r="D1">
-        <v>2.464036489560419</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.259860239864446</v>
+        <v>2.051020860671997</v>
       </c>
     </row>
   </sheetData>
